--- a/diagram/主合同基本信息表.xlsx
+++ b/diagram/主合同基本信息表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18540" windowHeight="7320" activeTab="1"/>
+    <workbookView windowWidth="28140" windowHeight="13130" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="单表" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>主合同基本信息表</t>
   </si>
@@ -71,6 +71,24 @@
   </si>
   <si>
     <t>序号</t>
+  </si>
+  <si>
+    <t>建设量级</t>
+  </si>
+  <si>
+    <t>业主联系人</t>
+  </si>
+  <si>
+    <t>测量占合同额
+（万元）</t>
+  </si>
+  <si>
+    <t>地质占合同额
+（万元）</t>
+  </si>
+  <si>
+    <t>其他占合同额
+（万元）</t>
   </si>
 </sst>
 </file>
@@ -78,14 +96,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,12 +134,110 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,127 +251,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -272,121 +296,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,68 +480,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="24">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -581,32 +605,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -679,6 +677,47 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -699,28 +738,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,35 +765,11 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -780,10 +778,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -792,137 +790,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -968,25 +966,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1004,16 +999,16 @@
     <xf numFmtId="176" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1378,94 +1373,94 @@
   <sheetData>
     <row r="1" ht="14.75"/>
     <row r="2" spans="2:3">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="20"/>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="23"/>
+      <c r="C3" s="22"/>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="23"/>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C5" s="23"/>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="24"/>
     </row>
     <row r="7" ht="28" spans="2:3">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="26"/>
+      <c r="C7" s="25"/>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="24"/>
+      <c r="C8" s="23"/>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="24"/>
+      <c r="C9" s="23"/>
     </row>
     <row r="10" ht="28" spans="2:3">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="26"/>
+      <c r="C10" s="25"/>
     </row>
     <row r="11" ht="28" spans="2:3">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="26"/>
+      <c r="C11" s="25"/>
     </row>
     <row r="12" ht="28" spans="2:3">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="26"/>
+      <c r="C12" s="25"/>
     </row>
     <row r="13" ht="28" spans="2:3">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="28"/>
+      <c r="C13" s="27"/>
     </row>
     <row r="14" ht="28" spans="2:3">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="28"/>
+      <c r="C14" s="27"/>
     </row>
     <row r="15" ht="28" spans="2:3">
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="28"/>
+      <c r="C15" s="27"/>
     </row>
     <row r="16" ht="14.75" spans="2:3">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="30"/>
+      <c r="C16" s="29"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -1483,16 +1478,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:P23"/>
+  <dimension ref="B2:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:P23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="11" max="11" width="13.3636363636364" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="14.75"/>
-    <row r="2" spans="2:16">
+    <row r="2" spans="2:15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1508,10 +1505,9 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="14"/>
-    </row>
-    <row r="3" ht="42" spans="2:16">
+      <c r="O2" s="14"/>
+    </row>
+    <row r="3" ht="42" spans="2:15">
       <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
@@ -1534,31 +1530,28 @@
         <v>6</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="15" t="s">
+      <c r="K3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:16">
+    <row r="4" spans="2:15">
       <c r="B4" s="6">
         <v>1</v>
       </c>
@@ -1568,16 +1561,15 @@
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
       <c r="L4" s="8"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="17"/>
-    </row>
-    <row r="5" spans="2:16">
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="17"/>
+    </row>
+    <row r="5" spans="2:15">
       <c r="B5" s="6">
         <v>2</v>
       </c>
@@ -1587,16 +1579,15 @@
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
       <c r="L5" s="8"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="17"/>
-    </row>
-    <row r="6" spans="2:16">
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="17"/>
+    </row>
+    <row r="6" spans="2:15">
       <c r="B6" s="6">
         <v>3</v>
       </c>
@@ -1607,15 +1598,14 @@
       <c r="G6" s="8"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
       <c r="L6" s="8"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="17"/>
-    </row>
-    <row r="7" spans="2:16">
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="17"/>
+    </row>
+    <row r="7" spans="2:15">
       <c r="B7" s="6">
         <v>4</v>
       </c>
@@ -1626,15 +1616,14 @@
       <c r="G7" s="8"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="17"/>
-    </row>
-    <row r="8" spans="2:16">
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="17"/>
+    </row>
+    <row r="8" spans="2:15">
       <c r="B8" s="6">
         <v>5</v>
       </c>
@@ -1645,15 +1634,14 @@
       <c r="G8" s="8"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="17"/>
-    </row>
-    <row r="9" spans="2:16">
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="17"/>
+    </row>
+    <row r="9" spans="2:15">
       <c r="B9" s="6">
         <v>6</v>
       </c>
@@ -1664,15 +1652,14 @@
       <c r="G9" s="8"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
       <c r="L9" s="8"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="17"/>
-    </row>
-    <row r="10" spans="2:16">
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="17"/>
+    </row>
+    <row r="10" spans="2:15">
       <c r="B10" s="6">
         <v>7</v>
       </c>
@@ -1683,15 +1670,14 @@
       <c r="G10" s="8"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
       <c r="L10" s="8"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="17"/>
-    </row>
-    <row r="11" spans="2:16">
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="17"/>
+    </row>
+    <row r="11" spans="2:15">
       <c r="B11" s="6">
         <v>8</v>
       </c>
@@ -1702,15 +1688,14 @@
       <c r="G11" s="8"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
       <c r="L11" s="8"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="17"/>
-    </row>
-    <row r="12" spans="2:16">
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="17"/>
+    </row>
+    <row r="12" spans="2:15">
       <c r="B12" s="6">
         <v>9</v>
       </c>
@@ -1721,15 +1706,14 @@
       <c r="G12" s="8"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
       <c r="L12" s="8"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="17"/>
-    </row>
-    <row r="13" spans="2:16">
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="17"/>
+    </row>
+    <row r="13" spans="2:15">
       <c r="B13" s="6">
         <v>10</v>
       </c>
@@ -1740,15 +1724,14 @@
       <c r="G13" s="8"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="17"/>
-    </row>
-    <row r="14" spans="2:16">
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="17"/>
+    </row>
+    <row r="14" spans="2:15">
       <c r="B14" s="6">
         <v>11</v>
       </c>
@@ -1759,15 +1742,14 @@
       <c r="G14" s="8"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
       <c r="L14" s="8"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="17"/>
-    </row>
-    <row r="15" spans="2:16">
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="17"/>
+    </row>
+    <row r="15" spans="2:15">
       <c r="B15" s="6">
         <v>12</v>
       </c>
@@ -1778,15 +1760,14 @@
       <c r="G15" s="8"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
       <c r="L15" s="8"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="17"/>
-    </row>
-    <row r="16" spans="2:16">
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="17"/>
+    </row>
+    <row r="16" spans="2:15">
       <c r="B16" s="6">
         <v>13</v>
       </c>
@@ -1797,15 +1778,14 @@
       <c r="G16" s="8"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
       <c r="L16" s="8"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="17"/>
-    </row>
-    <row r="17" spans="2:16">
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="17"/>
+    </row>
+    <row r="17" spans="2:15">
       <c r="B17" s="6">
         <v>14</v>
       </c>
@@ -1816,15 +1796,14 @@
       <c r="G17" s="8"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
       <c r="L17" s="8"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="17"/>
-    </row>
-    <row r="18" spans="2:16">
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="17"/>
+    </row>
+    <row r="18" spans="2:15">
       <c r="B18" s="6">
         <v>15</v>
       </c>
@@ -1835,15 +1814,14 @@
       <c r="G18" s="8"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
       <c r="L18" s="8"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="17"/>
-    </row>
-    <row r="19" spans="2:16">
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="17"/>
+    </row>
+    <row r="19" spans="2:15">
       <c r="B19" s="6">
         <v>16</v>
       </c>
@@ -1854,15 +1832,14 @@
       <c r="G19" s="8"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
       <c r="L19" s="8"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="17"/>
-    </row>
-    <row r="20" spans="2:16">
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="17"/>
+    </row>
+    <row r="20" spans="2:15">
       <c r="B20" s="6">
         <v>17</v>
       </c>
@@ -1873,15 +1850,14 @@
       <c r="G20" s="8"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
       <c r="L20" s="8"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="17"/>
-    </row>
-    <row r="21" spans="2:16">
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="17"/>
+    </row>
+    <row r="21" spans="2:15">
       <c r="B21" s="6">
         <v>18</v>
       </c>
@@ -1892,15 +1868,14 @@
       <c r="G21" s="8"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
       <c r="L21" s="8"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="17"/>
-    </row>
-    <row r="22" spans="2:16">
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="17"/>
+    </row>
+    <row r="22" spans="2:15">
       <c r="B22" s="6">
         <v>19</v>
       </c>
@@ -1911,15 +1886,14 @@
       <c r="G22" s="8"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
       <c r="L22" s="8"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="17"/>
-    </row>
-    <row r="23" spans="2:16">
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="17"/>
+    </row>
+    <row r="23" ht="14.75" spans="2:15">
       <c r="B23" s="9">
         <v>20</v>
       </c>
@@ -1930,17 +1904,16 @@
       <c r="G23" s="13"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
       <c r="L23" s="13"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
       <c r="O23" s="18"/>
-      <c r="P23" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B2:O2"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
